--- a/RocketGame/wwwroot/Test.xlsx
+++ b/RocketGame/wwwroot/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Команда</t>
   </si>
@@ -47,55 +47,40 @@
     <t>Такт 6</t>
   </si>
   <si>
-    <t>Такт 7</t>
-  </si>
-  <si>
-    <t>Такт 8</t>
-  </si>
-  <si>
-    <t>Такт 9</t>
-  </si>
-  <si>
-    <t>Такт 10</t>
-  </si>
-  <si>
-    <t>Такт 11</t>
-  </si>
-  <si>
-    <t>Такт 12</t>
-  </si>
-  <si>
-    <t>Такт 13</t>
-  </si>
-  <si>
     <t>Синие</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sadsgf</t>
+  </si>
+  <si>
+    <t>gdsfgsd</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Красные</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Красные</t>
-  </si>
-  <si>
-    <t>Никита1</t>
-  </si>
-  <si>
-    <t>У</t>
-  </si>
-  <si>
-    <t>АС:L</t>
+    <t>asfas</t>
+  </si>
+  <si>
+    <t>gsdgs</t>
+  </si>
+  <si>
+    <t>ДС:V</t>
   </si>
 </sst>
 </file>
@@ -141,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -181,89 +166,50 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/RocketGame/wwwroot/Test.xlsx
+++ b/RocketGame/wwwroot/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Команда</t>
   </si>
@@ -53,49 +53,43 @@
     <t>Такт 8</t>
   </si>
   <si>
-    <t>Такт 9</t>
-  </si>
-  <si>
-    <t>Такт 10</t>
-  </si>
-  <si>
-    <t>Такт 11</t>
-  </si>
-  <si>
-    <t>Такт 12</t>
-  </si>
-  <si>
-    <t>Такт 13</t>
-  </si>
-  <si>
     <t>Синие</t>
   </si>
   <si>
-    <t>0</t>
+    <t>12</t>
   </si>
   <si>
     <t>Никита</t>
   </si>
   <si>
-    <t>1/1</t>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>О</t>
   </si>
   <si>
     <t>Т</t>
   </si>
   <si>
-    <t>О</t>
+    <t>Р</t>
   </si>
   <si>
     <t>Красные</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Никита1</t>
   </si>
   <si>
+    <t>2/101</t>
+  </si>
+  <si>
     <t>У</t>
   </si>
   <si>
-    <t>АС:L</t>
+    <t>АС:W</t>
   </si>
 </sst>
 </file>
@@ -141,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,84 +181,87 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>22</v>
+      <c r="M3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/RocketGame/wwwroot/Test.xlsx
+++ b/RocketGame/wwwroot/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Команда</t>
   </si>
@@ -32,55 +32,22 @@
     <t>Такт 1</t>
   </si>
   <si>
-    <t>Такт 2</t>
-  </si>
-  <si>
-    <t>Такт 3</t>
-  </si>
-  <si>
-    <t>Такт 4</t>
-  </si>
-  <si>
-    <t>Такт 5</t>
-  </si>
-  <si>
-    <t>Такт 6</t>
-  </si>
-  <si>
-    <t>Синие</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>sadsgf</t>
-  </si>
-  <si>
-    <t>gdsfgsd</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
     <t>Красные</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>asfas</t>
+    <t>gdsfg</t>
   </si>
   <si>
-    <t>gsdgs</t>
+    <t>gsdfgd</t>
   </si>
   <si>
-    <t>ДС:V</t>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>Р:П</t>
   </si>
 </sst>
 </file>
@@ -126,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,66 +118,25 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>22</v>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/RocketGame/wwwroot/Test.xlsx
+++ b/RocketGame/wwwroot/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Команда</t>
   </si>
@@ -53,10 +53,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>sadsgf</t>
-  </si>
-  <si>
-    <t>gdsfgsd</t>
+    <t>Никита</t>
   </si>
   <si>
     <t>1/2</t>
@@ -68,19 +65,16 @@
     <t>Т</t>
   </si>
   <si>
+    <t>Р:П</t>
+  </si>
+  <si>
     <t>Красные</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>asfas</t>
-  </si>
-  <si>
-    <t>gsdgs</t>
-  </si>
-  <si>
-    <t>ДС:V</t>
+    <t>Никита1</t>
+  </si>
+  <si>
+    <t>1/3</t>
   </si>
 </sst>
 </file>
@@ -178,15 +172,18 @@
         <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -195,22 +192,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>22</v>
+      <c r="K3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RocketGame/wwwroot/Test.xlsx
+++ b/RocketGame/wwwroot/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Команда</t>
   </si>
@@ -47,6 +47,24 @@
     <t>Такт 6</t>
   </si>
   <si>
+    <t>Такт 7</t>
+  </si>
+  <si>
+    <t>Такт 8</t>
+  </si>
+  <si>
+    <t>Такт 9</t>
+  </si>
+  <si>
+    <t>Такт 10</t>
+  </si>
+  <si>
+    <t>Такт 11</t>
+  </si>
+  <si>
+    <t>Такт 12</t>
+  </si>
+  <si>
     <t>Синие</t>
   </si>
   <si>
@@ -65,16 +83,25 @@
     <t>Т</t>
   </si>
   <si>
+    <t>Красные</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Никита1</t>
+  </si>
+  <si>
+    <t>4/1</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>АС:W</t>
+  </si>
+  <si>
     <t>Р:П</t>
-  </si>
-  <si>
-    <t>Красные</t>
-  </si>
-  <si>
-    <t>Никита1</t>
-  </si>
-  <si>
-    <t>1/3</t>
   </si>
 </sst>
 </file>
@@ -120,7 +147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -160,57 +187,108 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
